--- a/Day-17-Sprint-Implementation/Day 17 - Sprint 1.xlsx
+++ b/Day-17-Sprint-Implementation/Day 17 - Sprint 1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t xml:space="preserve">Project Name</t>
   </si>
@@ -64,23 +64,7 @@
     <t xml:space="preserve">Acceptance Criteria</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Launch the Digital Training Management &amp; Feedback Portal,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You can access Register for Trainings, Access Training Materials,Submit feedback &amp; View Progress</t>
-    </r>
+    <t xml:space="preserve">Launch the Digital Training Management &amp; Feedback Portal,You can access Register for Trainings, Access Training Materials,Submit feedback &amp; View Progress</t>
   </si>
   <si>
     <t xml:space="preserve">D001</t>
@@ -119,7 +103,7 @@
     <t xml:space="preserve">As a registered user, I can access the training Module. It display all training informations</t>
   </si>
   <si>
-    <t xml:space="preserve">Users can accessthe Training Modules, with valid Login Credentials</t>
+    <t xml:space="preserve">Users can access the Training Modules, with valid Login Credentials</t>
   </si>
   <si>
     <t xml:space="preserve">D004</t>
@@ -155,7 +139,7 @@
     <t xml:space="preserve">Use can access the “LogOut”</t>
   </si>
   <si>
-    <t xml:space="preserve">User can access “LogOut”</t>
+    <t xml:space="preserve">User can access “Log Out”</t>
   </si>
   <si>
     <t xml:space="preserve">Create the Salesforce Object Setup, Tabls,etc</t>
@@ -185,6 +169,9 @@
     <t xml:space="preserve">Users can create custom tabs</t>
   </si>
   <si>
+    <t xml:space="preserve">D009</t>
+  </si>
+  <si>
     <t xml:space="preserve">Layouts</t>
   </si>
   <si>
@@ -192,6 +179,84 @@
   </si>
   <si>
     <t xml:space="preserve">User can create the layouts for the specific custom object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Java app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merging the two numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can merge the numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swapping two numbers without third variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can swap two variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vowel Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking if a vowel is present in a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vowel Checking in String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prime Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking if a given number is prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related to prime numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Largest Element in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the second largest element in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use can check the second largest element in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factorial </t>
   </si>
   <si>
     <t xml:space="preserve">Develop an enterprise portal that manages the employee onboarding process, integrates with Salesforce CRM and automates functional testing using selenium.</t>
@@ -221,7 +286,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -249,17 +314,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFF10D0C"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,36 +363,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -524,16 +578,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="47.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.53"/>
@@ -600,10 +654,10 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -611,7 +665,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -631,7 +685,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -649,7 +703,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
@@ -667,7 +721,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -685,7 +739,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
@@ -703,7 +757,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
@@ -721,7 +775,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -741,6 +795,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -758,79 +813,193 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="2" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
-      <c r="B32" s="2" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7"/>
+      <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-      <c r="B33" s="2" t="s">
+      <c r="C40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7"/>
+      <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="2" t="s">
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7"/>
+      <c r="B42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
-      <c r="B35" s="2" t="s">
+      <c r="C42" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7"/>
+      <c r="B43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="2" t="s">
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7"/>
+      <c r="B44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>57</v>
+      <c r="C44" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A39:A44"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Day-17-Sprint-Implementation/Day 17 - Sprint 1.xlsx
+++ b/Day-17-Sprint-Implementation/Day 17 - Sprint 1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t xml:space="preserve">Project Name</t>
   </si>
@@ -256,7 +256,22 @@
     <t xml:space="preserve">Reverse String</t>
   </si>
   <si>
+    <t xml:space="preserve">D017</t>
+  </si>
+  <si>
     <t xml:space="preserve">Factorial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorting the Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..___...</t>
   </si>
   <si>
     <t xml:space="preserve">Develop an enterprise portal that manages the employee onboarding process, integrates with Salesforce CRM and automates functional testing using selenium.</t>
@@ -358,7 +373,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,8 +406,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -580,8 +599,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -831,7 +850,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -851,6 +870,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>58</v>
       </c>
@@ -868,6 +888,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
@@ -885,6 +906,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
@@ -902,6 +924,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>70</v>
       </c>
@@ -919,29 +942,68 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9"/>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9"/>
+      <c r="B26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>15</v>
@@ -956,7 +1018,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -965,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -974,7 +1036,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -983,7 +1045,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -992,13 +1054,14 @@
         <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A27"/>
     <mergeCell ref="A39:A44"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Day-17-Sprint-Implementation/Day 17 - Sprint 1.xlsx
+++ b/Day-17-Sprint-Implementation/Day 17 - Sprint 1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RIKU\Internship\CRM_SALESFORCE_TASK\Assignments\Day-17-Sprint-Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3DE4F1-5B8D-4B32-BD07-F941658B1546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D010A8-72D4-4136-90F7-5DE94CF3E042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DTM" sheetId="1" r:id="rId1"/>
+    <sheet name="IHK" sheetId="3" r:id="rId2"/>
+    <sheet name="EMP" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="159">
   <si>
     <t>Project Name</t>
   </si>
@@ -43,9 +44,6 @@
     <t>Created By</t>
   </si>
   <si>
-    <t>Name of the Product Owner / Client Name</t>
-  </si>
-  <si>
     <t>Creation Date</t>
   </si>
   <si>
@@ -274,12 +272,6 @@
     <t>Sorting the Elements</t>
   </si>
   <si>
-    <t>D019</t>
-  </si>
-  <si>
-    <t>..___...</t>
-  </si>
-  <si>
     <t>Develop an enterprise portal that manages the employee onboarding process, integrates with Salesforce CRM and automates functional testing using selenium.</t>
   </si>
   <si>
@@ -307,15 +299,9 @@
     <t>Create Objects</t>
   </si>
   <si>
-    <t>Training Session</t>
-  </si>
-  <si>
     <t>Trainer</t>
   </si>
   <si>
-    <t>Feedback Ticket</t>
-  </si>
-  <si>
     <t>Onboarding Request</t>
   </si>
   <si>
@@ -356,6 +342,168 @@
   </si>
   <si>
     <t>CRM Salesforce Service Request</t>
+  </si>
+  <si>
+    <t>Employee Onboarding and IT Asset Management Portal</t>
+  </si>
+  <si>
+    <t>Check the sum of the array</t>
+  </si>
+  <si>
+    <t>Reverse the string provided</t>
+  </si>
+  <si>
+    <t>Calculates the factorial of a number provided</t>
+  </si>
+  <si>
+    <t>Sorts the array provided by user</t>
+  </si>
+  <si>
+    <t>Employees should be able to login to the Potal after providing valid credentials</t>
+  </si>
+  <si>
+    <t>HR should be able to onboard employees after validations or after some activities</t>
+  </si>
+  <si>
+    <t>HR should be able to allocate resources to onboarding employees</t>
+  </si>
+  <si>
+    <t>Employees should be able to request for assets if they need it</t>
+  </si>
+  <si>
+    <t>Employees should be able to view their onboarding progresss</t>
+  </si>
+  <si>
+    <t>Automated functional testing should be performed</t>
+  </si>
+  <si>
+    <t>Internal Helpdesk and Knowledge Base Portal</t>
+  </si>
+  <si>
+    <t>Build a SharePoint-powered Helpdesk and Knowledge Base system where employees can log IT and HR-related issues, view ticket status, access self-help articles, and interact with support teams. The portal isintegrated with Salesforce CRM for managing support tickets and includes automated testing using Java and Selenium.</t>
+  </si>
+  <si>
+    <t>User can able to access the "Logout"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As first time visitor to the EOI website , I want to register my account so that I can able to logi the application </t>
+  </si>
+  <si>
+    <t>New user should be able to Register account with Valid data.</t>
+  </si>
+  <si>
+    <t>As a register suer, I want to login to the website, so that ic an see my account details etc..</t>
+  </si>
+  <si>
+    <t>System must validate user credentials and allow login if credentials are correct.</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Trainning Session</t>
+  </si>
+  <si>
+    <t>Create the "Trainning Session" custom object</t>
+  </si>
+  <si>
+    <t>User can able to create custom object with Create the "Trainning Session"</t>
+  </si>
+  <si>
+    <t>Create the "Trainer" custom object</t>
+  </si>
+  <si>
+    <t>User can able to create custom object with Create the "Trainer"</t>
+  </si>
+  <si>
+    <t>Create the "Feedback Ticket" custom object</t>
+  </si>
+  <si>
+    <t>User can able to create custom object with Create the "Feedback Ticket"</t>
+  </si>
+  <si>
+    <t>User can calculate sum of an array</t>
+  </si>
+  <si>
+    <t>User can reverse elements of a string</t>
+  </si>
+  <si>
+    <t>User can calulate factorial of a number</t>
+  </si>
+  <si>
+    <t>User can sort elements of an array</t>
+  </si>
+  <si>
+    <t>Setup Salesforce Org, create custom objects: “Ticket”, “Knowledge Base”</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Knowledge Base</t>
+  </si>
+  <si>
+    <t>As an user, I should be able to raise a ticket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As first time visitor to the website , I want to register my account so that I can able to login the application </t>
+  </si>
+  <si>
+    <t>Ticket Status</t>
+  </si>
+  <si>
+    <t>Log Issues</t>
+  </si>
+  <si>
+    <t>Self Help Articles</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Users should be able to access "LogOut"</t>
+  </si>
+  <si>
+    <t>As an user I should be able to access various self help articles to resolve the most commonly occuring issues</t>
+  </si>
+  <si>
+    <t>As an user I should be able to interact with support team if any issue persists or immediate intervention is necessery</t>
+  </si>
+  <si>
+    <t>User should be able to access self help articles</t>
+  </si>
+  <si>
+    <t>User should be able to contact Support teams</t>
+  </si>
+  <si>
+    <t>As a Registered user, user can able to access the status of tickets</t>
+  </si>
+  <si>
+    <t>User should able to check ticket status</t>
+  </si>
+  <si>
+    <t>As a registered user, I can log issues occuring in the IT/HR.</t>
+  </si>
+  <si>
+    <t>User should be able to log issues</t>
+  </si>
+  <si>
+    <t>Users should be able to creae tickets</t>
+  </si>
+  <si>
+    <t>Users should get access to knowlegbe bases if they need it</t>
+  </si>
+  <si>
+    <t>As an user, I should be able to access knowledge bases on need to know basis</t>
+  </si>
+  <si>
+    <t>Name: Mriganka Patra</t>
+  </si>
+  <si>
+    <t>Email: mriganka.patra@cognizant.com</t>
   </si>
 </sst>
 </file>
@@ -366,7 +514,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -385,6 +533,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -407,14 +561,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -432,6 +580,27 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,468 +797,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.85" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="47.265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.53125" style="4"/>
-    <col min="6" max="6" width="30.06640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="11.53125" style="4"/>
+    <col min="1" max="1" width="33.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" style="2"/>
+    <col min="6" max="6" width="59.3984375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.53125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5">
+        <v>45824</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
-        <v>45824</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="6">
+        <v>45828</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
-        <v>45828</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="32.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="32.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="37.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="17.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="29.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="29.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>18</v>
+      <c r="D26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>18</v>
+      <c r="A27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>93</v>
+      <c r="B28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="48" spans="1:1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="12.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A47:A48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1102,275 +1362,716 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFF81EB-5898-415B-99C6-090C491E5C5E}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0036D8A1-0FA2-41E2-B269-6057071BC1AF}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.796875" customWidth="1"/>
-    <col min="2" max="2" width="63.1328125" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36.73046875" customWidth="1"/>
+    <col min="1" max="1" width="30.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="2"/>
+    <col min="6" max="6" width="37.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45824</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45828</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A22"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFF81EB-5898-415B-99C6-090C491E5C5E}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="63.1328125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="34.1328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="9"/>
+    <col min="6" max="6" width="36.73046875" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5">
+        <v>45824</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
-        <v>45824</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="6">
+        <v>45828</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
-        <v>45828</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="D13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="4" t="s">
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>102</v>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:A14"/>
+  <mergeCells count="3">
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>